--- a/HLS_man/COP24/COP24_man_malawi.xlsx
+++ b/HLS_man/COP24/COP24_man_malawi.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Suze van Santen\Documents\GitHub\TextToDistributiveJustice\HLS_man\COP24\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Suze van Santen\OneDrive - Delft University of Technology\Documenten\GitHub\TextToDistributiveJustice\HLS_man\COP24\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7B75343-7D29-4574-9EFD-159E4C9DD26F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{310ED6AD-48C7-4CE6-95F8-D17F1D40E9AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28800" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="49">
   <si>
     <t>COP24_malawi</t>
   </si>
@@ -45,12 +45,6 @@
   </si>
   <si>
     <t>Unit</t>
-  </si>
-  <si>
-    <t>Scale</t>
-  </si>
-  <si>
-    <t>Time</t>
   </si>
   <si>
     <t>Principle</t>
@@ -203,25 +197,10 @@
 I thank you.</t>
   </si>
   <si>
-    <t>no</t>
-  </si>
-  <si>
-    <t>yes</t>
-  </si>
-  <si>
     <t>n.a.</t>
   </si>
   <si>
-    <t>national</t>
-  </si>
-  <si>
-    <t>past</t>
-  </si>
-  <si>
     <t>utilitarian</t>
-  </si>
-  <si>
-    <t>natural disasters</t>
   </si>
   <si>
     <t>general normative statement</t>
@@ -238,25 +217,31 @@
 energy, and contribute to REDD+ actions .</t>
   </si>
   <si>
-    <t>mitigation</t>
-  </si>
-  <si>
     <t>financial resources, technologcal resources</t>
   </si>
   <si>
-    <t>global</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prescribes the need to combine technology and capacitybuilding, no specific mention of a distribution. </t>
-  </si>
-  <si>
-    <t>action, political will, UNFCCC principles and agreements</t>
-  </si>
-  <si>
-    <t>egalitarian</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Moral judgement on the need of action in light of the action malawi is already taking. </t>
+    <t>climate justice</t>
+  </si>
+  <si>
+    <t>Shape</t>
+  </si>
+  <si>
+    <t>financial mechanisms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prescribes the need to combine technology and capacitybuilding, no specific mention of a distribution or motivation. </t>
+  </si>
+  <si>
+    <t>responsibility</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moral judgement on the need of action, prescribing a distribution proportional to past commitment, no specific motivational principle highlighted. </t>
+  </si>
+  <si>
+    <t>proportional to commitments</t>
+  </si>
+  <si>
+    <t>UNFCCC agreements and principles</t>
   </si>
 </sst>
 </file>
@@ -626,10 +611,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I30"/>
+  <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -637,7 +622,7 @@
     <col min="1" max="1" width="44.33203125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -651,302 +636,293 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="B2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+      <c r="B3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" t="s">
+        <v>36</v>
+      </c>
+      <c r="G6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="144" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A24" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A25" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A26" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A27" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B27">
+        <v>2</v>
+      </c>
+      <c r="C27" t="s">
+        <v>43</v>
+      </c>
+      <c r="D27" t="s">
+        <v>40</v>
+      </c>
+      <c r="E27" t="s">
+        <v>35</v>
+      </c>
+      <c r="F27" t="s">
         <v>37</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="72" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C6" t="s">
-        <v>43</v>
-      </c>
-      <c r="D6" t="s">
-        <v>39</v>
-      </c>
-      <c r="E6" t="s">
-        <v>40</v>
-      </c>
-      <c r="F6" t="s">
-        <v>41</v>
-      </c>
-      <c r="G6" t="s">
-        <v>42</v>
-      </c>
-      <c r="H6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="72" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="72" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A15" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A17" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B17" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A18" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B18" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A19" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B19" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A20" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B20" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A21" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B21" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A22" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B22" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="144" x14ac:dyDescent="0.3">
-      <c r="A23" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B23" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A24" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B24" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A25" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B25" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A26" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B26" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A27" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B27" t="s">
-        <v>38</v>
-      </c>
-      <c r="C27" t="s">
-        <v>47</v>
-      </c>
-      <c r="D27" t="s">
-        <v>48</v>
-      </c>
-      <c r="E27" t="s">
-        <v>49</v>
-      </c>
-      <c r="F27" t="s">
-        <v>39</v>
       </c>
       <c r="G27" t="s">
         <v>44</v>
       </c>
-      <c r="H27" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="28" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A29" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B29">
+        <v>2</v>
+      </c>
+      <c r="C29" t="s">
+        <v>48</v>
+      </c>
+      <c r="D29" t="s">
+        <v>45</v>
+      </c>
+      <c r="E29" t="s">
+        <v>47</v>
+      </c>
+      <c r="F29" t="s">
+        <v>37</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A30" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B28" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A29" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B29" t="s">
-        <v>38</v>
-      </c>
-      <c r="C29" t="s">
-        <v>51</v>
-      </c>
-      <c r="E29" t="s">
-        <v>49</v>
-      </c>
-      <c r="F29" t="s">
-        <v>39</v>
-      </c>
-      <c r="G29" t="s">
-        <v>52</v>
-      </c>
-      <c r="H29" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A30" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B30" t="s">
-        <v>37</v>
+      <c r="B30">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
